--- a/medicine/Handicap/Dans_l'œil_du_tigre/Dans_l'œil_du_tigre.xlsx
+++ b/medicine/Handicap/Dans_l'œil_du_tigre/Dans_l'œil_du_tigre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'œil du tigre (Burning Bright) est un film américain réalisé par Carlos Brooks, sorti en 2010.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un garçon de 12 ans, autiste, et sa grande sœur combattent un tigre tueur dans une maison barricadée lorsqu'une tempête violente frappe la ville, empêchant la sortie extérieure de quiconque.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de sa mère, Kelly (Briana Evigan) est forcée de jouer le rôle de sœur et de mère pour son frère autiste, Tom (Charlie Tahan). Tout en découvrant que leur beau-père, le propriétaire d'un safari (Garret Dillahunt), a utilisé l'argent mis de côté pour ses études afin d'acheter un tigre de cirque, Kelly réalise que son rêve d'avoir une bonne éducation est anéanti à toujours. Mais juste,quand Kelly pensait que le pire était arrivé, une violente tempête frappe leur maison avec des vents dévastateurs. La situation devient pire encore lorsque le tigre tueur de son beau-père s'échappe de sa cage, et que celui-ci, qui n'a pas eu de bon repas depuis bien longtemps, est affamé. Enfermés, terrifiés, et complètement sans défense contre un des plus grands prédateurs de la nature, Kelly et Tom font de leur mieux afin d'échapper aux crocs du sauvage prédateur jusqu'à ce que le vent se calme et qu'ils puissent s'enfuir à l'extérieur.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Burning Bright
-Titre francophone : Dans l'œil du tigre[1]
+Titre francophone : Dans l'œil du tigre
 Réalisation : Carlos Brooks
 Scénario : Christine Coyle Johnson et Julie Prendiville Roux, d'après leur histoire partagée avec David W. Higgins
 Musique : Zack Ryan
@@ -597,7 +615,7 @@
 Durée : 86 minutes
 Dates de sortie :
 États-Unis : 17 août 2010 (DVD)
-France : 12 juin 2013 (DVD) ; 25 juillet 2015 (VOD)[2]</t>
+France : 12 juin 2013 (DVD) ; 25 juillet 2015 (VOD)</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Briana Evigan : Kelly Taylor
 Charlie Tahan : Tom Taylor
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dans_l%27%C5%93il_du_tigre</t>
+          <t>Dans_l'œil_du_tigre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,9 +681,11 @@
           <t>Tournage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Floride[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Floride.
 </t>
         </is>
       </c>
